--- a/Frequencia/MAF105_T2.xlsx
+++ b/Frequencia/MAF105_T2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -817,9 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1007,8 +1007,12 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1045,7 +1049,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1068,8 +1072,12 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1106,7 +1114,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN53" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO53" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1123,8 +1131,12 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1161,7 +1173,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="2"/>
@@ -1178,8 +1190,12 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1216,11 +1232,11 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1233,8 +1249,12 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1271,7 +1291,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="2"/>
@@ -1288,8 +1308,12 @@
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1330,7 +1354,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1343,8 +1367,12 @@
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1381,11 +1409,11 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1398,8 +1426,12 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1436,7 +1468,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="2"/>
@@ -1453,8 +1485,12 @@
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1491,7 +1527,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="2"/>
@@ -1508,8 +1544,12 @@
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1550,7 +1590,7 @@
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -1563,8 +1603,12 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1601,7 +1645,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="2"/>
@@ -1618,8 +1662,12 @@
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1656,11 +1704,11 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -1673,8 +1721,12 @@
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1711,7 +1763,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="2"/>
@@ -1728,8 +1780,12 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1766,7 +1822,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="2"/>
@@ -1783,8 +1839,12 @@
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1821,7 +1881,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="2"/>
@@ -1838,8 +1898,12 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1876,7 +1940,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="2"/>
@@ -1893,8 +1957,12 @@
       <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1935,7 +2003,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -1948,8 +2016,12 @@
       <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1990,7 +2062,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2003,8 +2075,12 @@
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -2041,7 +2117,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="2"/>
@@ -2058,8 +2134,12 @@
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -2100,7 +2180,7 @@
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -2113,8 +2193,12 @@
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2151,7 +2235,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="2"/>
@@ -2168,8 +2252,12 @@
       <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2206,7 +2294,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="2"/>
@@ -2223,8 +2311,12 @@
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2261,7 +2353,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="2"/>
@@ -2278,8 +2370,12 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -2316,7 +2412,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="2"/>
@@ -2333,8 +2429,12 @@
       <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -2371,7 +2471,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="2"/>
@@ -2388,8 +2488,12 @@
       <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2430,7 +2534,7 @@
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -2443,8 +2547,12 @@
       <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -2485,7 +2593,7 @@
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -2498,8 +2606,12 @@
       <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2536,7 +2648,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="2"/>
@@ -2553,8 +2665,12 @@
       <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -2591,7 +2707,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="2"/>
@@ -2608,8 +2724,12 @@
       <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2646,7 +2766,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="2"/>
@@ -2663,8 +2783,12 @@
       <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2701,7 +2825,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="2"/>
@@ -2718,8 +2842,12 @@
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2756,7 +2884,7 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="2"/>
@@ -2773,8 +2901,12 @@
       <c r="C34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2811,7 +2943,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="2"/>
@@ -2828,8 +2960,12 @@
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2866,7 +3002,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="2"/>
@@ -2883,8 +3019,12 @@
       <c r="C36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2921,7 +3061,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="2"/>
@@ -2938,8 +3078,12 @@
       <c r="C37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2976,7 +3120,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="2"/>
@@ -2993,8 +3137,12 @@
       <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3031,7 +3179,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="2"/>
@@ -3048,8 +3196,12 @@
       <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3086,11 +3238,11 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -3103,8 +3255,12 @@
       <c r="C40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -3145,7 +3301,7 @@
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
@@ -3158,8 +3314,12 @@
       <c r="C41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -3196,7 +3356,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="2"/>
@@ -3213,8 +3373,12 @@
       <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -3251,7 +3415,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="2"/>
@@ -3268,8 +3432,12 @@
       <c r="C43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -3306,7 +3474,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="2"/>
@@ -3323,8 +3491,12 @@
       <c r="C44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -3361,7 +3533,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="2"/>
@@ -3378,8 +3550,12 @@
       <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -3416,7 +3592,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="2"/>
@@ -3433,8 +3609,12 @@
       <c r="C46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -3471,7 +3651,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="2"/>
@@ -3488,8 +3668,12 @@
       <c r="C47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -3526,7 +3710,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="2"/>
@@ -3543,8 +3727,12 @@
       <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3581,11 +3769,11 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -3598,8 +3786,12 @@
       <c r="C49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -3636,7 +3828,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="2"/>
@@ -3653,8 +3845,12 @@
       <c r="C50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -3691,7 +3887,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="2"/>
@@ -3708,8 +3904,12 @@
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -3746,7 +3946,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="2"/>
@@ -3763,8 +3963,12 @@
       <c r="C52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -3801,7 +4005,7 @@
       <c r="AM52" s="6"/>
       <c r="AN52" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO52" s="6">
         <f t="shared" si="2"/>
@@ -3818,8 +4022,12 @@
       <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -3856,7 +4064,7 @@
       <c r="AM53" s="6"/>
       <c r="AN53" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO53" s="6">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T2.xlsx
+++ b/Frequencia/MAF105_T2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="118">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -817,9 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D54" sqref="D54"/>
+      <selection pane="topRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,9 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1049,7 +1051,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1078,7 +1080,9 @@
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1114,7 +1118,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN53" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO53" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1137,7 +1141,9 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1173,7 +1179,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="2"/>
@@ -1196,7 +1202,9 @@
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1232,7 +1240,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="2"/>
@@ -1255,7 +1263,9 @@
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1291,7 +1301,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="2"/>
@@ -1314,7 +1324,9 @@
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1354,7 +1366,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1373,7 +1385,9 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1409,7 +1423,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="2"/>
@@ -1432,7 +1446,9 @@
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1468,7 +1484,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="2"/>
@@ -1491,7 +1507,9 @@
       <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1527,7 +1545,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="2"/>
@@ -1550,7 +1568,9 @@
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1590,7 +1610,7 @@
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -1609,7 +1629,9 @@
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1645,7 +1667,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="2"/>
@@ -1668,7 +1690,9 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1704,7 +1728,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="2"/>
@@ -1727,7 +1751,9 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1763,7 +1789,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="2"/>
@@ -1786,7 +1812,9 @@
       <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1822,7 +1850,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="2"/>
@@ -1845,7 +1873,9 @@
       <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1881,7 +1911,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="2"/>
@@ -1904,7 +1934,9 @@
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1940,7 +1972,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="2"/>
@@ -1963,7 +1995,9 @@
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2003,7 +2037,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2022,7 +2056,9 @@
       <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2062,7 +2098,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2081,7 +2117,9 @@
       <c r="E20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2117,7 +2155,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="2"/>
@@ -2140,7 +2178,9 @@
       <c r="E21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2176,7 +2216,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="2"/>
@@ -2199,7 +2239,9 @@
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2235,7 +2277,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="2"/>
@@ -2258,7 +2300,9 @@
       <c r="E23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2294,7 +2338,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="2"/>
@@ -2317,7 +2361,9 @@
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2353,7 +2399,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="2"/>
@@ -2376,7 +2422,9 @@
       <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2412,7 +2460,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="2"/>
@@ -2435,7 +2483,9 @@
       <c r="E26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2471,7 +2521,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="2"/>
@@ -2494,7 +2544,9 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2530,7 +2582,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="2"/>
@@ -2553,7 +2605,9 @@
       <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2589,7 +2643,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="2"/>
@@ -2612,7 +2666,9 @@
       <c r="E29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2648,7 +2704,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="2"/>
@@ -2671,7 +2727,9 @@
       <c r="E30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2707,7 +2765,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="2"/>
@@ -2730,7 +2788,9 @@
       <c r="E31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2766,7 +2826,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="2"/>
@@ -2789,7 +2849,9 @@
       <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2825,7 +2887,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="2"/>
@@ -2848,7 +2910,9 @@
       <c r="E33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2884,7 +2948,7 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="2"/>
@@ -2907,7 +2971,9 @@
       <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2943,7 +3009,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="2"/>
@@ -2966,7 +3032,9 @@
       <c r="E35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3002,7 +3070,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="2"/>
@@ -3025,7 +3093,9 @@
       <c r="E36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3061,7 +3131,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="2"/>
@@ -3084,7 +3154,9 @@
       <c r="E37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -3120,7 +3192,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="2"/>
@@ -3143,7 +3215,9 @@
       <c r="E38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3179,7 +3253,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="2"/>
@@ -3202,7 +3276,9 @@
       <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -3242,7 +3318,7 @@
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -3261,7 +3337,9 @@
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3297,7 +3375,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="2"/>
@@ -3320,7 +3398,9 @@
       <c r="E41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3356,7 +3436,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="2"/>
@@ -3379,7 +3459,9 @@
       <c r="E42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3415,7 +3497,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="2"/>
@@ -3438,7 +3520,9 @@
       <c r="E43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3474,7 +3558,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="2"/>
@@ -3497,7 +3581,9 @@
       <c r="E44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3533,7 +3619,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="2"/>
@@ -3556,7 +3642,9 @@
       <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3596,7 +3684,7 @@
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -3615,7 +3703,9 @@
       <c r="E46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -3651,7 +3741,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="2"/>
@@ -3674,7 +3764,9 @@
       <c r="E47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -3714,7 +3806,7 @@
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
@@ -3733,7 +3825,9 @@
       <c r="E48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3769,7 +3863,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="2"/>
@@ -3792,7 +3886,9 @@
       <c r="E49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3828,7 +3924,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="2"/>
@@ -3851,7 +3947,9 @@
       <c r="E50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -3887,7 +3985,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="2"/>
@@ -3910,7 +4008,9 @@
       <c r="E51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -3946,7 +4046,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="2"/>
@@ -3969,7 +4069,9 @@
       <c r="E52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -4005,7 +4107,7 @@
       <c r="AM52" s="6"/>
       <c r="AN52" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO52" s="6">
         <f t="shared" si="2"/>
@@ -4028,7 +4130,9 @@
       <c r="E53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -4064,7 +4168,7 @@
       <c r="AM53" s="6"/>
       <c r="AN53" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO53" s="6">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T2.xlsx
+++ b/Frequencia/MAF105_T2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="118">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -818,8 +818,8 @@
   <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C53" sqref="C53"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,9 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1051,7 +1053,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1083,7 +1085,9 @@
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1118,7 +1122,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN53" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO53" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1144,7 +1148,9 @@
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1179,7 +1185,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="2"/>
@@ -1205,7 +1211,9 @@
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1244,7 +1252,7 @@
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1266,7 +1274,9 @@
       <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1301,7 +1311,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="2"/>
@@ -1327,7 +1337,9 @@
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1366,7 +1378,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1388,7 +1400,9 @@
       <c r="F8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1423,7 +1437,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="2"/>
@@ -1449,7 +1463,9 @@
       <c r="F9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1484,7 +1500,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="2"/>
@@ -1510,7 +1526,9 @@
       <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1545,7 +1563,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="2"/>
@@ -1571,7 +1589,9 @@
       <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1610,7 +1630,7 @@
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -1632,7 +1652,9 @@
       <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1667,7 +1689,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="2"/>
@@ -1693,7 +1715,9 @@
       <c r="F13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1728,7 +1752,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="2"/>
@@ -1754,7 +1778,9 @@
       <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1789,7 +1815,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="2"/>
@@ -1815,7 +1841,9 @@
       <c r="F15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1850,7 +1878,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="2"/>
@@ -1876,7 +1904,9 @@
       <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1911,7 +1941,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="2"/>
@@ -1937,7 +1967,9 @@
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1972,7 +2004,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="2"/>
@@ -1998,7 +2030,9 @@
       <c r="F18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2037,7 +2071,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2059,7 +2093,9 @@
       <c r="F19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2098,7 +2134,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2120,7 +2156,9 @@
       <c r="F20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2155,7 +2193,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="2"/>
@@ -2181,7 +2219,9 @@
       <c r="F21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2220,7 +2260,7 @@
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -2242,7 +2282,9 @@
       <c r="F22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -2281,7 +2323,7 @@
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -2303,7 +2345,9 @@
       <c r="F23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2338,7 +2382,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="2"/>
@@ -2364,7 +2408,9 @@
       <c r="F24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2399,7 +2445,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="2"/>
@@ -2425,7 +2471,9 @@
       <c r="F25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -2460,7 +2508,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="2"/>
@@ -2486,7 +2534,9 @@
       <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2521,7 +2571,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="2"/>
@@ -2547,7 +2597,9 @@
       <c r="F27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2582,7 +2634,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="2"/>
@@ -2608,7 +2660,9 @@
       <c r="F28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2643,7 +2697,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="2"/>
@@ -2669,7 +2723,9 @@
       <c r="F29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2704,7 +2760,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="2"/>
@@ -2730,7 +2786,9 @@
       <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -2765,7 +2823,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="2"/>
@@ -2791,7 +2849,9 @@
       <c r="F31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2830,7 +2890,7 @@
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -2852,7 +2912,9 @@
       <c r="F32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -2887,7 +2949,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="2"/>
@@ -2913,7 +2975,9 @@
       <c r="F33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2952,7 +3016,7 @@
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -2974,7 +3038,9 @@
       <c r="F34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -3009,7 +3075,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="2"/>
@@ -3035,7 +3101,9 @@
       <c r="F35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -3074,7 +3142,7 @@
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -3096,7 +3164,9 @@
       <c r="F36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -3131,7 +3201,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="2"/>
@@ -3157,7 +3227,9 @@
       <c r="F37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -3192,7 +3264,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="2"/>
@@ -3218,7 +3290,9 @@
       <c r="F38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -3253,7 +3327,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="2"/>
@@ -3279,7 +3353,9 @@
       <c r="F39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -3314,7 +3390,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="2"/>
@@ -3340,7 +3416,9 @@
       <c r="F40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -3375,7 +3453,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="2"/>
@@ -3401,7 +3479,9 @@
       <c r="F41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -3440,7 +3520,7 @@
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
@@ -3462,7 +3542,9 @@
       <c r="F42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -3497,7 +3579,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="2"/>
@@ -3523,7 +3605,9 @@
       <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -3558,7 +3642,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="2"/>
@@ -3584,7 +3668,9 @@
       <c r="F44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -3623,7 +3709,7 @@
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
@@ -3645,7 +3731,9 @@
       <c r="F45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -3684,7 +3772,7 @@
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -3706,7 +3794,9 @@
       <c r="F46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -3741,7 +3831,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="2"/>
@@ -3767,7 +3857,9 @@
       <c r="F47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -3806,7 +3898,7 @@
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
@@ -3828,7 +3920,9 @@
       <c r="F48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -3863,7 +3957,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="2"/>
@@ -3889,7 +3983,9 @@
       <c r="F49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3924,7 +4020,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="2"/>
@@ -3950,7 +4046,9 @@
       <c r="F50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -3985,7 +4083,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="2"/>
@@ -4011,7 +4109,9 @@
       <c r="F51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -4046,7 +4146,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="2"/>
@@ -4072,7 +4172,9 @@
       <c r="F52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4107,7 +4209,7 @@
       <c r="AM52" s="6"/>
       <c r="AN52" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO52" s="6">
         <f t="shared" si="2"/>
@@ -4133,7 +4235,9 @@
       <c r="F53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -4172,7 +4276,7 @@
       </c>
       <c r="AO53" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Frequencia/MAF105_T2.xlsx
+++ b/Frequencia/MAF105_T2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10935" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="MAF105_T3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -819,7 +819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G54" sqref="G54"/>
+      <selection pane="topRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,9 @@
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1053,7 +1055,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1088,7 +1090,9 @@
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1122,7 +1126,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN53" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO53" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1151,7 +1155,9 @@
       <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1185,7 +1191,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="2"/>
@@ -1214,7 +1220,9 @@
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1248,7 +1256,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="2"/>
@@ -1277,7 +1285,9 @@
       <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1311,7 +1321,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="2"/>
@@ -1340,7 +1350,9 @@
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1378,7 +1390,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1403,7 +1415,9 @@
       <c r="G8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1437,7 +1451,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="2"/>
@@ -1466,7 +1480,9 @@
       <c r="G9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1500,7 +1516,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="2"/>
@@ -1529,7 +1545,9 @@
       <c r="G10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1563,7 +1581,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="2"/>
@@ -1592,7 +1610,9 @@
       <c r="G11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1630,7 +1650,7 @@
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -1655,7 +1675,9 @@
       <c r="G12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1689,7 +1711,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="2"/>
@@ -1718,7 +1740,9 @@
       <c r="G13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1752,7 +1776,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="2"/>
@@ -1781,7 +1805,9 @@
       <c r="G14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1815,7 +1841,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="2"/>
@@ -1844,7 +1870,9 @@
       <c r="G15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1878,7 +1906,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="2"/>
@@ -1907,7 +1935,9 @@
       <c r="G16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1941,7 +1971,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="2"/>
@@ -1970,7 +2000,9 @@
       <c r="G17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2004,7 +2036,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="2"/>
@@ -2033,7 +2065,9 @@
       <c r="G18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2067,7 +2101,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="2"/>
@@ -2096,7 +2130,9 @@
       <c r="G19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2134,7 +2170,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2159,7 +2195,9 @@
       <c r="G20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2193,7 +2231,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="2"/>
@@ -2222,7 +2260,9 @@
       <c r="G21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2256,7 +2296,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="2"/>
@@ -2285,7 +2325,9 @@
       <c r="G22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2319,7 +2361,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="2"/>
@@ -2348,7 +2390,9 @@
       <c r="G23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -2382,7 +2426,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="2"/>
@@ -2411,7 +2455,9 @@
       <c r="G24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -2445,7 +2491,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="2"/>
@@ -2474,7 +2520,9 @@
       <c r="G25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2508,7 +2556,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="2"/>
@@ -2537,7 +2585,9 @@
       <c r="G26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2571,7 +2621,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="2"/>
@@ -2600,7 +2650,9 @@
       <c r="G27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2634,7 +2686,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="2"/>
@@ -2663,7 +2715,9 @@
       <c r="G28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2697,7 +2751,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="2"/>
@@ -2726,7 +2780,9 @@
       <c r="G29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -2760,7 +2816,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="2"/>
@@ -2789,7 +2845,9 @@
       <c r="G30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -2823,7 +2881,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="2"/>
@@ -2852,7 +2910,9 @@
       <c r="G31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -2886,7 +2946,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="2"/>
@@ -2915,7 +2975,9 @@
       <c r="G32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -2949,7 +3011,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="2"/>
@@ -2978,7 +3040,9 @@
       <c r="G33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3012,7 +3076,7 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="2"/>
@@ -3041,7 +3105,9 @@
       <c r="G34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3075,7 +3141,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="2"/>
@@ -3104,7 +3170,9 @@
       <c r="G35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3138,7 +3206,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="2"/>
@@ -3167,7 +3235,9 @@
       <c r="G36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -3201,7 +3271,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="2"/>
@@ -3230,7 +3300,9 @@
       <c r="G37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -3264,7 +3336,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="2"/>
@@ -3293,7 +3365,9 @@
       <c r="G38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -3327,7 +3401,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="2"/>
@@ -3356,7 +3430,9 @@
       <c r="G39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -3390,7 +3466,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="2"/>
@@ -3419,7 +3495,9 @@
       <c r="G40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -3457,7 +3535,7 @@
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
@@ -3482,7 +3560,9 @@
       <c r="G41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -3516,7 +3596,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="2"/>
@@ -3545,7 +3625,9 @@
       <c r="G42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -3579,7 +3661,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="2"/>
@@ -3608,7 +3690,9 @@
       <c r="G43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -3642,7 +3726,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="2"/>
@@ -3671,7 +3755,9 @@
       <c r="G44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3705,7 +3791,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="2"/>
@@ -3734,7 +3820,9 @@
       <c r="G45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3768,7 +3856,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="2"/>
@@ -3797,7 +3885,9 @@
       <c r="G46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3831,7 +3921,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="2"/>
@@ -3860,7 +3950,9 @@
       <c r="G47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3894,7 +3986,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="2"/>
@@ -3923,7 +4015,9 @@
       <c r="G48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3957,7 +4051,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="2"/>
@@ -3986,7 +4080,9 @@
       <c r="G49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -4020,7 +4116,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="2"/>
@@ -4049,7 +4145,9 @@
       <c r="G50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -4083,7 +4181,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="2"/>
@@ -4112,7 +4210,9 @@
       <c r="G51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -4146,7 +4246,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="2"/>
@@ -4175,7 +4275,9 @@
       <c r="G52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -4209,7 +4311,7 @@
       <c r="AM52" s="6"/>
       <c r="AN52" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO52" s="6">
         <f t="shared" si="2"/>
@@ -4238,7 +4340,9 @@
       <c r="G53" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -4272,7 +4376,7 @@
       <c r="AM53" s="6"/>
       <c r="AN53" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO53" s="6">
         <f t="shared" si="2"/>
